--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t xml:space="preserve">Được nợ lại 10% </t>
+  </si>
+  <si>
+    <t>BCX45</t>
+  </si>
+  <si>
+    <t>BCX90</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP CƯỜNG MILK TRẢ HÀNG</t>
+  </si>
+  <si>
+    <t>Hàng Nhập</t>
+  </si>
+  <si>
+    <t>Hàng Trả</t>
   </si>
 </sst>
 </file>
@@ -352,19 +367,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -401,13 +403,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,17 +461,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,9 +476,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,112 +485,133 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -873,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +907,7 @@
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="18" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="3" customWidth="1"/>
@@ -900,9 +923,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
@@ -918,267 +941,283 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="64" t="s">
+      <c r="F4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="46" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K4" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="21" t="s">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>837</v>
+      </c>
+      <c r="B6" s="49">
+        <v>44125</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="29">
+        <v>48</v>
+      </c>
+      <c r="H6" s="32">
+        <v>225000</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" ref="I6:I24" si="0">G6*H6</f>
+        <v>10800000</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="K6" s="24">
+        <f>I6*(1-J6)</f>
+        <v>6372000.0000000009</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
-        <v>837</v>
-      </c>
-      <c r="B7" s="62">
-        <v>44125</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="32">
-        <v>48</v>
-      </c>
-      <c r="H7" s="35">
-        <v>225000</v>
-      </c>
-      <c r="I7" s="35">
-        <f t="shared" ref="I7:I23" si="0">G7*H7</f>
-        <v>10800000</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="K7" s="26">
-        <f>I7*(1-J7)</f>
-        <v>6372000.0000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="33" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G7" s="30">
         <v>24</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H7" s="33">
         <v>455000</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J8" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K8" s="28">
-        <f t="shared" ref="K8:K23" si="1">I8*(1-J8)</f>
+      <c r="J7" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" ref="K7:K24" si="1">I7*(1-J7)</f>
         <v>6442800.0000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="33" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G8" s="30">
         <v>24</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H8" s="33">
         <v>465000</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
-      <c r="J9" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K9" s="28">
+      <c r="J8" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K8" s="26">
         <f t="shared" si="1"/>
         <v>6584400.0000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="33" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G9" s="30">
         <v>24</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H9" s="33">
         <v>475000</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="J10" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K10" s="28">
+      <c r="J9" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K9" s="26">
         <f t="shared" si="1"/>
         <v>6726000.0000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="33" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G10" s="30">
         <v>24</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H10" s="33">
         <v>485000</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
-      <c r="J11" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K11" s="28">
+      <c r="J10" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K10" s="26">
         <f t="shared" si="1"/>
         <v>6867600.0000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="33" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G11" s="30">
         <v>24</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H11" s="33">
         <v>550000</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
-      <c r="J12" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="J11" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K11" s="26">
         <f t="shared" si="1"/>
         <v>7788000.0000000009</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30">
+        <v>24</v>
+      </c>
+      <c r="H12" s="33">
+        <v>455000</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>10920000</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="1"/>
+        <v>6442800.0000000009</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="33">
+      <c r="A13" s="44"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="31">
         <v>24</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="34">
         <v>455000</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
@@ -1191,191 +1230,191 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="34">
+      <c r="A14" s="43">
+        <v>850</v>
+      </c>
+      <c r="B14" s="49">
+        <v>44130</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="29">
+        <v>48</v>
+      </c>
+      <c r="H14" s="32">
+        <v>225000</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="0"/>
+        <v>10800000</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="1"/>
+        <v>6372000.0000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="30">
+        <v>48</v>
+      </c>
+      <c r="H15" s="33">
+        <v>455000</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="0"/>
+        <v>21840000</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="1"/>
+        <v>12885600.000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="30">
         <v>24</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H16" s="33">
+        <v>465000</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="0"/>
+        <v>11160000</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K16" s="26">
+        <f t="shared" si="1"/>
+        <v>6584400.0000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="30">
+        <v>24</v>
+      </c>
+      <c r="H17" s="33">
+        <v>485000</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="0"/>
+        <v>11640000</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="1"/>
+        <v>6867600.0000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="30">
+        <v>24</v>
+      </c>
+      <c r="H18" s="33">
+        <v>550000</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="0"/>
+        <v>13200000</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="1"/>
+        <v>7788000.0000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="30">
+        <v>24</v>
+      </c>
+      <c r="H19" s="33">
         <v>455000</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I19" s="33">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J14" s="29">
-        <v>0.41</v>
-      </c>
-      <c r="K14" s="30">
+      <c r="J19" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K19" s="26">
         <f t="shared" si="1"/>
         <v>6442800.0000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>850</v>
-      </c>
-      <c r="B15" s="62">
-        <v>44130</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="32">
-        <v>48</v>
-      </c>
-      <c r="H15" s="35">
-        <v>225000</v>
-      </c>
-      <c r="I15" s="35">
-        <f t="shared" si="0"/>
-        <v>10800000</v>
-      </c>
-      <c r="J15" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="K15" s="26">
-        <f t="shared" si="1"/>
-        <v>6372000.0000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="33">
-        <v>48</v>
-      </c>
-      <c r="H16" s="36">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="31">
+        <v>24</v>
+      </c>
+      <c r="H20" s="34">
         <v>455000</v>
       </c>
-      <c r="I16" s="36">
-        <f t="shared" si="0"/>
-        <v>21840000</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K16" s="28">
-        <f t="shared" si="1"/>
-        <v>12885600.000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="33">
-        <v>24</v>
-      </c>
-      <c r="H17" s="36">
-        <v>465000</v>
-      </c>
-      <c r="I17" s="36">
-        <f t="shared" si="0"/>
-        <v>11160000</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K17" s="28">
-        <f t="shared" si="1"/>
-        <v>6584400.0000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="33">
-        <v>24</v>
-      </c>
-      <c r="H18" s="36">
-        <v>485000</v>
-      </c>
-      <c r="I18" s="36">
-        <f t="shared" si="0"/>
-        <v>11640000</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K18" s="28">
-        <f t="shared" si="1"/>
-        <v>6867600.0000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="33">
-        <v>24</v>
-      </c>
-      <c r="H19" s="36">
-        <v>550000</v>
-      </c>
-      <c r="I19" s="36">
-        <f t="shared" si="0"/>
-        <v>13200000</v>
-      </c>
-      <c r="J19" s="27">
-        <v>0.41</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" si="1"/>
-        <v>7788000.0000000009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="33">
-        <v>24</v>
-      </c>
-      <c r="H20" s="36">
-        <v>455000</v>
-      </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
@@ -1388,230 +1427,447 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="34">
-        <v>24</v>
-      </c>
-      <c r="H21" s="37">
-        <v>455000</v>
-      </c>
-      <c r="I21" s="37">
-        <f t="shared" si="0"/>
-        <v>10920000</v>
-      </c>
-      <c r="J21" s="29">
-        <v>0.41</v>
-      </c>
-      <c r="K21" s="30">
-        <f t="shared" si="1"/>
-        <v>6442800.0000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A21" s="43">
         <v>1209</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B21" s="49">
         <v>44135</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G21" s="29">
         <v>48</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H21" s="32">
         <v>235000</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I21" s="32">
         <f t="shared" si="0"/>
         <v>11280000</v>
       </c>
-      <c r="J22" s="25">
-        <v>0.41</v>
-      </c>
-      <c r="K22" s="26">
+      <c r="J21" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="K21" s="24">
         <f t="shared" si="1"/>
         <v>6655200.0000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="34" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G22" s="31">
         <v>48</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H22" s="34">
         <v>255000</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I22" s="34">
         <f t="shared" si="0"/>
         <v>12240000</v>
       </c>
-      <c r="J23" s="29">
-        <v>0.41</v>
-      </c>
-      <c r="K23" s="30">
+      <c r="J22" s="27">
+        <v>0.41</v>
+      </c>
+      <c r="K22" s="28">
         <f t="shared" si="1"/>
         <v>7221600.0000000009</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="49">
+        <v>44155</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="29">
+        <v>24</v>
+      </c>
+      <c r="H23" s="32">
+        <v>255000</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="0"/>
+        <v>6120000</v>
+      </c>
+      <c r="J23" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" si="1"/>
+        <v>3610800.0000000005</v>
+      </c>
+    </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="31">
+        <v>24</v>
+      </c>
+      <c r="H24" s="34">
+        <v>485000</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="0"/>
+        <v>11640000</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0.41</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="1"/>
+        <v>6867600.0000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15">
-        <f>SUM(G7:G23)</f>
-        <v>528</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17">
-        <f>SUM(I7:I23)</f>
-        <v>204960000</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="16">
-        <f>SUM(K7:K23)</f>
-        <v>120926400.00000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
+        <f>SUM(G6:G24)</f>
+        <v>576</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17">
+        <f>SUM(I6:I24)</f>
+        <v>222720000</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="16">
+        <f>SUM(K6:K24)</f>
+        <v>131404800.00000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="49">
+        <v>44155</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="29">
+        <v>36</v>
+      </c>
+      <c r="H29" s="32">
+        <v>455000</v>
+      </c>
+      <c r="I29" s="32">
+        <f>G29*H29</f>
+        <v>16380000</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="K29" s="24">
+        <f>I29*(1-J29)</f>
+        <v>9664200.0000000019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="31">
+        <v>44</v>
+      </c>
+      <c r="H30" s="34">
+        <v>550000</v>
+      </c>
+      <c r="I30" s="34">
+        <f>G30*H30</f>
+        <v>24200000</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0.41</v>
+      </c>
+      <c r="K30" s="28">
+        <f>I30*(1-J30)</f>
+        <v>14278000.000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
+        <f>SUM(G29:G30)</f>
+        <v>80</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="17">
+        <f>SUM(I29:I30)</f>
+        <v>40580000</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16">
+        <f>SUM(K29:K30)</f>
+        <v>23942200.000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61">
-        <f>K24</f>
-        <v>120926400.00000001</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="75">
+        <f>K25</f>
+        <v>131404800.00000001</v>
+      </c>
+      <c r="E33" s="76">
+        <f>D33-D34</f>
+        <v>107462600.00000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="75">
+        <f>K31</f>
+        <v>23942200.000000004</v>
+      </c>
+      <c r="E34" s="79"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B35" s="19">
         <v>44125</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C35" s="62">
         <v>59124000</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="54">
-        <f>SUM(C27:C28)</f>
+      <c r="D35" s="63"/>
+      <c r="E35" s="80">
+        <f>SUM(C35:C36)</f>
         <v>89124000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="19">
+    <row r="36" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="19">
         <v>44132</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C36" s="62">
         <v>30000000</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="54"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="D36" s="63"/>
+      <c r="E36" s="80"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="38">
-        <f>C26-E27</f>
-        <v>31802400.000000015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="35">
+        <f>E33-E35</f>
+        <v>18338600.000000015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="39">
-        <f>10%*E29</f>
-        <v>3180240.0000000019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="36">
+        <f>10%*E37</f>
+        <v>1833860.0000000016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="40">
-        <f>E29-E30</f>
-        <v>28622160.000000015</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="37">
+        <f>E37-E38</f>
+        <v>16504740.000000013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="52">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
@@ -234,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -412,13 +412,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -491,6 +515,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,33 +548,84 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,82 +635,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,49 +986,49 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="71"/>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="63" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
@@ -1002,21 +1047,21 @@
       <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="64">
         <v>837</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="66">
         <v>44125</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="77" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -1041,11 +1086,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="30" t="s">
         <v>15</v>
       </c>
@@ -1068,11 +1113,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
@@ -1095,11 +1140,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1122,11 +1167,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
@@ -1149,11 +1194,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
@@ -1176,11 +1221,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="30" t="s">
         <v>13</v>
       </c>
@@ -1203,11 +1248,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="31" t="s">
         <v>12</v>
       </c>
@@ -1230,17 +1275,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="64">
         <v>850</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="66">
         <v>44130</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="64" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -1265,11 +1310,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="30" t="s">
         <v>15</v>
       </c>
@@ -1292,11 +1337,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="30" t="s">
         <v>10</v>
       </c>
@@ -1319,11 +1364,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="30" t="s">
         <v>9</v>
       </c>
@@ -1346,11 +1391,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="30" t="s">
         <v>14</v>
       </c>
@@ -1373,11 +1418,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="30" t="s">
         <v>13</v>
       </c>
@@ -1400,11 +1445,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="31" t="s">
         <v>12</v>
       </c>
@@ -1427,17 +1472,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="64">
         <v>1209</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="66">
         <v>44135</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="64" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1462,11 +1507,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="31" t="s">
         <v>28</v>
       </c>
@@ -1489,15 +1534,15 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="49">
+      <c r="A23" s="64"/>
+      <c r="B23" s="66">
         <v>44155</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="64" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -1522,11 +1567,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="31" t="s">
         <v>35</v>
       </c>
@@ -1549,13 +1594,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
         <f>SUM(G6:G24)</f>
@@ -1573,49 +1618,49 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="69" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="70" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="71"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="55" t="s">
+      <c r="K27" s="63" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="20" t="s">
         <v>22</v>
       </c>
@@ -1634,19 +1679,19 @@
       <c r="I28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="49">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66">
         <v>44155</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="64" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="29" t="s">
@@ -1671,11 +1716,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="31" t="s">
         <v>14</v>
       </c>
@@ -1698,13 +1743,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
         <f>SUM(G29:G30)</f>
@@ -1722,138 +1767,115 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="74" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="41">
         <f>K25</f>
         <v>131404800.00000001</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="58">
         <f>D33-D34</f>
         <v>107462600.00000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="74" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="41">
         <f>K31</f>
         <v>23942200.000000004</v>
       </c>
-      <c r="E34" s="79"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="E34" s="59"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="19">
         <v>44125</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="61">
         <v>59124000</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="80">
-        <f>SUM(C35:C36)</f>
-        <v>89124000</v>
+      <c r="D35" s="62"/>
+      <c r="E35" s="85">
+        <f>SUM(C35:D37)</f>
+        <v>99124000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="19">
         <v>44132</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="61">
         <v>30000000</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="80"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+      <c r="D36" s="62"/>
+      <c r="E36" s="86"/>
+    </row>
+    <row r="37" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="80">
+        <v>44160</v>
+      </c>
+      <c r="C37" s="84">
+        <v>10000000</v>
+      </c>
+      <c r="D37" s="62"/>
+      <c r="E37" s="87"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="35">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="35">
         <f>E33-E35</f>
-        <v>18338600.000000015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
+        <v>8338600.0000000149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="36">
-        <f>10%*E37</f>
-        <v>1833860.0000000016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="36">
+        <f>10%*E38</f>
+        <v>833860.00000000151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="37">
-        <f>E37-E38</f>
-        <v>16504740.000000013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="37">
+        <f>E38-E39</f>
+        <v>7504740.000000013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
+  <mergeCells count="53">
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E35:E37"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="B6:B13"/>
@@ -1866,8 +1888,43 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/Cường milk/Chị Bởi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">Cần phải thanh toán cho công ty </t>
   </si>
   <si>
-    <t xml:space="preserve">Được nợ lại 10% </t>
-  </si>
-  <si>
     <t>BCX45</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>Hàng Trả</t>
+  </si>
+  <si>
+    <t>Vận chuyển</t>
+  </si>
+  <si>
+    <t>Được nợ lại 10% (18.338.600đ)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -521,6 +524,90 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,15 +635,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,89 +653,11 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -941,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,49 +986,49 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
@@ -1047,21 +1047,21 @@
       <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="64">
+      <c r="A6" s="51">
         <v>837</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="54">
         <v>44125</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -1086,11 +1086,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="30" t="s">
         <v>15</v>
       </c>
@@ -1113,11 +1113,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
@@ -1140,11 +1140,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
@@ -1167,11 +1167,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
@@ -1194,11 +1194,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="30" t="s">
         <v>14</v>
       </c>
@@ -1221,11 +1221,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="30" t="s">
         <v>13</v>
       </c>
@@ -1248,11 +1248,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="31" t="s">
         <v>12</v>
       </c>
@@ -1275,17 +1275,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
+      <c r="A14" s="51">
         <v>850</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="54">
         <v>44130</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -1310,11 +1310,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="30" t="s">
         <v>15</v>
       </c>
@@ -1337,11 +1337,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="30" t="s">
         <v>10</v>
       </c>
@@ -1364,11 +1364,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="30" t="s">
         <v>9</v>
       </c>
@@ -1391,11 +1391,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="30" t="s">
         <v>14</v>
       </c>
@@ -1418,11 +1418,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="30" t="s">
         <v>13</v>
       </c>
@@ -1445,11 +1445,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="31" t="s">
         <v>12</v>
       </c>
@@ -1472,17 +1472,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+      <c r="A21" s="51">
         <v>1209</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="54">
         <v>44135</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E21" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1507,11 +1507,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="31" t="s">
         <v>28</v>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="66">
+      <c r="A23" s="51"/>
+      <c r="B23" s="54">
         <v>44155</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="29">
         <v>24</v>
@@ -1567,13 +1567,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="31">
         <v>24</v>
@@ -1594,13 +1594,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
         <f>SUM(G6:G24)</f>
@@ -1618,49 +1618,49 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="A26" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="20" t="s">
         <v>22</v>
       </c>
@@ -1679,19 +1679,19 @@
       <c r="I28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54">
         <v>44155</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="29" t="s">
@@ -1716,11 +1716,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="31" t="s">
         <v>14</v>
       </c>
@@ -1743,13 +1743,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
         <f>SUM(G29:G30)</f>
@@ -1767,115 +1767,163 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="41">
         <f>K25</f>
         <v>131404800.00000001</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="83">
         <f>D33-D34</f>
         <v>107462600.00000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="41">
         <f>K31</f>
         <v>23942200.000000004</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="84"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="19">
         <v>44125</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="85">
         <v>59124000</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="85">
-        <f>SUM(C35:D37)</f>
-        <v>99124000</v>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47">
+        <f>SUM(C35:D38)</f>
+        <v>99874000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="19">
         <v>44132</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="85">
         <v>30000000</v>
       </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="86"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="80">
+      <c r="A37" s="44"/>
+      <c r="B37" s="19">
         <v>44160</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="86">
         <v>10000000</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="87"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="D37" s="86"/>
+      <c r="E37" s="48"/>
+    </row>
+    <row r="38" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="86">
+        <v>750000</v>
+      </c>
+      <c r="D38" s="86"/>
+      <c r="E38" s="49"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="35">
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="35">
         <f>E33-E35</f>
-        <v>8338600.0000000149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="36">
-        <f>10%*E38</f>
-        <v>833860.00000000151</v>
+        <v>7588600.0000000149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="36">
+        <v>1833860</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="37">
-        <f>E38-E39</f>
-        <v>7504740.000000013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="37">
+        <f>E39-E40</f>
+        <v>5754740.0000000149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E35:E38"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="B6:B13"/>
@@ -1888,43 +1936,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
